--- a/十一月销售数据/11月份提成表.xlsx
+++ b/十一月销售数据/11月份提成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,14 @@
   <si>
     <t>十一月份保险销售提成表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利61元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1199,7 +1207,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1543,7 +1551,7 @@
       <c r="H6" s="18">
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2982,7 +2990,9 @@
       </c>
       <c r="T27" s="29"/>
       <c r="U27" s="28"/>
-      <c r="V27" s="32"/>
+      <c r="V27" s="32" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A28" s="10">
@@ -3048,7 +3058,9 @@
       </c>
       <c r="T28" s="29"/>
       <c r="U28" s="28"/>
-      <c r="V28" s="32"/>
+      <c r="V28" s="32">
+        <v>4350.42</v>
+      </c>
     </row>
     <row r="29" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A29" s="10">
@@ -3114,7 +3126,9 @@
       </c>
       <c r="T29" s="29"/>
       <c r="U29" s="28"/>
-      <c r="V29" s="32"/>
+      <c r="V29" s="32" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A30" s="10">

--- a/十一月销售数据/11月份提成表.xlsx
+++ b/十一月销售数据/11月份提成表.xlsx
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4062,7 +4062,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.19685039370078741" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" fitToWidth="4" orientation="landscape" horizontalDpi="4294967292" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToWidth="4" orientation="landscape" horizontalDpi="4294967292" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
